--- a/ProductosCanni.xlsx
+++ b/ProductosCanni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j_cam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC78420E-DFD8-4B1E-9F8C-56D9A9EEBCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FDAD82-95DE-423D-A5B1-55216554F802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10460,7 +10460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
